--- a/function list.xlsx
+++ b/function list.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcp/onGoing/-MEANINGFUL INTERVENTION/IF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcp/onGoing/ScienceMuseum/[on going]/[if_corn]/_program/3rd year/[interface]/OperatorInterface/IFoperatorInterface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6EB17CB-EE6B-034D-AA35-8B7DE00E8668}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7CB5152-5D08-8942-B23F-B11063D48948}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{57ED045C-7D92-9C4F-99EA-31388B80B472}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="1" xr2:uid="{57ED045C-7D92-9C4F-99EA-31388B80B472}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Specific module</t>
   </si>
@@ -156,14 +157,44 @@
     <t>effect module#: 해당 모듈이 발동 중인가? (wave시발동되어 있는 모듈가 아닌 모듈)</t>
   </si>
   <si>
-    <t>*background는 preset저작시간에 저작하도록 40분</t>
+    <t>*background + 효과 preset은 preset저작시간에 저작하도록 40분</t>
+  </si>
+  <si>
+    <t>preset</t>
+  </si>
+  <si>
+    <t>preset properties</t>
+  </si>
+  <si>
+    <t>o/x</t>
+  </si>
+  <si>
+    <t>human operator</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>effect/trigger</t>
+  </si>
+  <si>
+    <t>if then 가능</t>
+  </si>
+  <si>
+    <t>비교시 장점</t>
+  </si>
+  <si>
+    <t>if then 불가</t>
+  </si>
+  <si>
+    <t>if then 기능제작</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +206,14 @@
       <color rgb="FFFF0000"/>
       <name val="Gulim"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gulim"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -620,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -629,48 +668,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,26 +727,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D9CF52-828B-8F4A-A613-304FAE5E2F03}">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C6" zoomScale="108" zoomScaleNormal="248" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1073,259 +1121,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11" t="s">
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="43" t="s">
+      <c r="N10" s="54"/>
+      <c r="O10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="34" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="25"/>
+      <c r="Q11" s="58"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="36"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="25"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="34"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="41" t="s">
+      <c r="B14" s="34"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="42" t="s">
+      <c r="B15" s="34"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17" ht="42" x14ac:dyDescent="0.15">
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="4"/>
       <c r="J16" s="7"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="46"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="2:17" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="56" t="s">
+      <c r="B17" s="34"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="23"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="E19" s="45"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="E20" s="45"/>
+      <c r="E20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1344,4 +1392,353 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45D1C5A-3AAF-0B40-BCE5-E300A2DFCDF0}">
+  <dimension ref="B2:Q42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="H8" s="59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H11" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H12" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H13" s="56"/>
+      <c r="I13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="58"/>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H15" s="9"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="H17" s="8"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="H18" s="25"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="35"/>
+    </row>
+    <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="11"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C31" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C32" s="47"/>
+      <c r="D32" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="Q12:Q13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>